--- a/biology/Médecine/La_Moindre_des_choses/La_Moindre_des_choses.xlsx
+++ b/biology/Médecine/La_Moindre_des_choses/La_Moindre_des_choses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Moindre des choses est un film français réalisé par Nicolas Philibert et sorti en 1997.
-Avec l'édition du DVD en 2018, le film L'Invisible (Entretien avec Jean Oury), 45 minutes, tourné en 2002 est joint en complément[1].
+Avec l'édition du DVD en 2018, le film L'Invisible (Entretien avec Jean Oury), 45 minutes, tourné en 2002 est joint en complément.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie quotidienne des pensionnaires et soignants à la clinique de La Borde (développant la psychothérapie institutionnelle dans le Loir-et-Cher) au cours de l'été 1995, vue à travers la préparation d'une représentation théâtrale programmée pour le 15 août.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Moindre des choses
 Réalisation : Nicolas Philibert
@@ -585,7 +601,9 @@
           <t>Distinctions [2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1996 : Grand prix du public au Festival international du cinéma et des nouveaux médias de Montréal.
 1996 : Prix spécial du jury du 11e Festival International du film anthropologique de Pârnu (Estonie).
